--- a/2014/Doc/テーブル定義書.xlsx
+++ b/2014/Doc/テーブル定義書.xlsx
@@ -16,8 +16,9 @@
     <sheet name="個人認証トラン" sheetId="4" r:id="rId7"/>
     <sheet name="勤怠トラン" sheetId="5" r:id="rId8"/>
     <sheet name="メール届出申請関連マスタ" sheetId="9" r:id="rId9"/>
+    <sheet name="更新履歴" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="114210" calcMode="manual"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="195">
   <si>
     <t>命名規約</t>
     <rPh sb="0" eb="2">
@@ -1075,13 +1076,61 @@
       <t>ユウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・個人トランから基本勤務時間削除
+・勤怠トランに基本勤務時間追加</t>
+    <rPh sb="1" eb="3">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,6 +1167,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1127,7 +1183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1150,6 +1206,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1158,7 +1251,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1169,6 +1262,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1476,15 +1587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1190064</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1493,8 +1604,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1657350" y="866774"/>
-          <a:ext cx="1512000" cy="0"/>
+          <a:off x="3657600" y="3600449"/>
+          <a:ext cx="570939" cy="200026"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1925,7 +2036,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2371,6 +2482,51 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1">
+      <c r="A4" s="13">
+        <v>41773</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E18"/>
@@ -2837,9 +2993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2928,7 +3082,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G12"/>
+  <dimension ref="B3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3023,87 +3177,51 @@
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+      <c r="G10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3200,7 +3318,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G16"/>
+  <dimension ref="B3:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3394,56 +3512,92 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3458,9 +3612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>

--- a/2014/Doc/テーブル定義書.xlsx
+++ b/2014/Doc/テーブル定義書.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="196">
   <si>
     <t>命名規約</t>
     <rPh sb="0" eb="2">
@@ -1122,6 +1122,42 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・個人設定トラン、詳細の桁数変更
+・勤怠トランに詳細追加
+・勤怠トラン主キー追加</t>
+    <rPh sb="1" eb="3">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2484,11 +2520,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E4"/>
+  <dimension ref="A3:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -2518,9 +2552,23 @@
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
     </row>
+    <row r="5" spans="1:5" ht="60" customHeight="1">
+      <c r="A5" s="13">
+        <v>41784</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3186,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3318,7 +3366,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G18"/>
+  <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3390,7 +3438,9 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3408,7 +3458,9 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3426,7 +3478,9 @@
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
@@ -3513,28 +3567,26 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>45</v>
@@ -3548,29 +3600,29 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>73</v>
@@ -3585,19 +3637,37 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
